--- a/src/main/resources/resource/SkillResource.xlsx
+++ b/src/main/resources/resource/SkillResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23256" windowHeight="9647"/>
+    <workbookView windowWidth="21000" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>skillId</t>
   </si>
@@ -28,13 +28,28 @@
     <t>mp</t>
   </si>
   <si>
+    <t>consumes</t>
+  </si>
+  <si>
+    <t>buffs</t>
+  </si>
+  <si>
     <t>横扫</t>
   </si>
   <si>
+    <t>[{"itemId":"3001","quantity":2}]</t>
+  </si>
+  <si>
     <t>冰封</t>
   </si>
   <si>
+    <t>1002</t>
+  </si>
+  <si>
     <t>冲锋</t>
+  </si>
+  <si>
+    <t>1003</t>
   </si>
 </sst>
 </file>
@@ -42,9 +57,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -56,8 +71,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,121 +209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,13 +224,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,13 +284,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,25 +368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,103 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,6 +415,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,11 +474,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,23 +484,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,24 +507,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,10 +521,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -518,138 +533,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -969,15 +985,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="5" max="5" width="61.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="16.8888888888889" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -990,13 +1010,19 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>10000</v>
@@ -1004,13 +1030,19 @@
       <c r="D2">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>12000</v>
@@ -1018,19 +1050,31 @@
       <c r="D3">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>10000</v>
       </c>
       <c r="D4">
         <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/SkillResource.xlsx
+++ b/src/main/resources/resource/SkillResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8484"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>skillId</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>1003</t>
+  </si>
+  <si>
+    <t>普通攻击</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -57,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,9 +77,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,12 +100,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -109,6 +129,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -116,50 +144,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -170,7 +154,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,9 +168,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,9 +191,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,31 +230,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +380,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,139 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,36 +421,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -472,24 +448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -505,6 +463,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -515,16 +512,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -533,133 +539,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,14 +991,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="5" max="5" width="61.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="16.8888888888889" customWidth="1"/>
   </cols>
@@ -1077,6 +1084,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/resource/SkillResource.xlsx
+++ b/src/main/resources/resource/SkillResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="17351" windowHeight="7787"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>skillId</t>
   </si>
@@ -34,18 +34,21 @@
     <t>buffs</t>
   </si>
   <si>
+    <t>skillType</t>
+  </si>
+  <si>
     <t>横扫</t>
   </si>
   <si>
     <t>[{"itemId":"3001","quantity":2}]</t>
   </si>
   <si>
+    <t>1001</t>
+  </si>
+  <si>
     <t>冰封</t>
   </si>
   <si>
-    <t>1002</t>
-  </si>
-  <si>
     <t>冲锋</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>五步毒杀</t>
   </si>
 </sst>
 </file>
@@ -63,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,8 +83,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,69 +150,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,18 +166,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,9 +182,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +206,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -208,14 +221,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,11 +430,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,6 +456,44 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,60 +527,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,133 +545,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -991,20 +997,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="5" max="5" width="61.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="16.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1023,13 +1029,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>10000</v>
@@ -1038,18 +1047,21 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1001</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>12000</v>
@@ -1058,18 +1070,19 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>10000</v>
@@ -1078,18 +1091,21 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1098,11 +1114,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>1005</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="F4" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/resource/SkillResource.xlsx
+++ b/src/main/resources/resource/SkillResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>skillId</t>
   </si>
@@ -28,6 +28,9 @@
     <t>mp</t>
   </si>
   <si>
+    <t>attack</t>
+  </si>
+  <si>
     <t>consumes</t>
   </si>
   <si>
@@ -37,18 +40,21 @@
     <t>skillType</t>
   </si>
   <si>
+    <t>attackRadius</t>
+  </si>
+  <si>
     <t>横扫</t>
   </si>
   <si>
     <t>[{"itemId":"3001","quantity":2}]</t>
   </si>
   <si>
+    <t>冰封</t>
+  </si>
+  <si>
     <t>1001</t>
   </si>
   <si>
-    <t>冰封</t>
-  </si>
-  <si>
     <t>冲锋</t>
   </si>
   <si>
@@ -62,6 +68,9 @@
   </si>
   <si>
     <t>五步毒杀</t>
+  </si>
+  <si>
+    <t>治疗术</t>
   </si>
 </sst>
 </file>
@@ -69,9 +78,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -83,65 +92,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -152,7 +102,113 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,55 +222,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,31 +245,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +359,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,139 +407,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,17 +439,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,17 +476,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -480,20 +483,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,16 +514,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,10 +542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,133 +554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -997,20 +1006,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="5" max="5" width="61.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="16.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="61.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="16.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="16.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1032,13 +1042,19 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>10000</v>
@@ -1046,22 +1062,26 @@
       <c r="D2">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>12000</v>
@@ -1069,20 +1089,25 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>10000</v>
@@ -1090,22 +1115,25 @@
       <c r="D4">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1113,19 +1141,26 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5">
+      <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>10000</v>
@@ -1133,13 +1168,39 @@
       <c r="D6">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
         <v>1005</v>
       </c>
-      <c r="G6">
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>20000</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1004</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
     </row>
@@ -1147,7 +1208,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="F4" numberStoredAsText="1"/>
+    <ignoredError sqref="G3:G4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/resource/SkillResource.xlsx
+++ b/src/main/resources/resource/SkillResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17351" windowHeight="7787"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>skillId</t>
   </si>
@@ -43,16 +43,43 @@
     <t>attackRadius</t>
   </si>
   <si>
+    <t>centerType</t>
+  </si>
+  <si>
+    <t>skillAreaType</t>
+  </si>
+  <si>
+    <t>skillAreaParam</t>
+  </si>
+  <si>
+    <t>areaType</t>
+  </si>
+  <si>
+    <t>areaParam</t>
+  </si>
+  <si>
+    <t>targetMax</t>
+  </si>
+  <si>
+    <t>containSelf</t>
+  </si>
+  <si>
     <t>横扫</t>
   </si>
   <si>
     <t>[{"itemId":"3001","quantity":2}]</t>
   </si>
   <si>
+    <t>{"radius":4}</t>
+  </si>
+  <si>
     <t>冰封</t>
   </si>
   <si>
     <t>1001</t>
+  </si>
+  <si>
+    <t>{}</t>
   </si>
   <si>
     <t>冲锋</t>
@@ -78,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,6 +116,80 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,32 +201,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,70 +216,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,20 +262,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -245,85 +272,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,13 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,79 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,15 +463,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,56 +477,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,16 +509,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +581,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,21 +1033,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="6" max="6" width="61.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="13.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="38.8888888888889" customWidth="1"/>
     <col min="7" max="7" width="16.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="16.5555555555556" customWidth="1"/>
+    <col min="10" max="11" width="13.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="19.2222222222222" customWidth="1"/>
+    <col min="13" max="13" width="11.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="14.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="14.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="20.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1048,13 +1081,34 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>10000</v>
@@ -1066,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2">
@@ -1075,13 +1129,34 @@
       <c r="I2">
         <v>4</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>12000</v>
@@ -1090,10 +1165,10 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -1101,13 +1176,34 @@
       <c r="I3">
         <v>4</v>
       </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>10000</v>
@@ -1116,10 +1212,10 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1127,13 +1223,34 @@
       <c r="I4">
         <v>4</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1145,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5">
@@ -1154,13 +1271,34 @@
       <c r="I5">
         <v>4</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>10000</v>
@@ -1169,7 +1307,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1">
         <v>1005</v>
@@ -1180,13 +1318,34 @@
       <c r="I6">
         <v>4</v>
       </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>20000</v>
@@ -1195,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1">
         <v>1004</v>
@@ -1203,6 +1362,30 @@
       <c r="H7">
         <v>2</v>
       </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="7:7">
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/resource/SkillResource.xlsx
+++ b/src/main/resources/resource/SkillResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>skillId</t>
   </si>
@@ -73,31 +73,25 @@
     <t>{"radius":4}</t>
   </si>
   <si>
-    <t>冰封</t>
-  </si>
-  <si>
-    <t>1001</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>普通攻击</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
   <si>
     <t>{}</t>
   </si>
   <si>
-    <t>冲锋</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>普通攻击</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>五步毒杀</t>
   </si>
   <si>
     <t>治疗术</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -106,9 +100,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -134,6 +128,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -141,45 +196,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,65 +227,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -272,187 +266,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,54 +467,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +496,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -563,16 +548,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,133 +575,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,13 +1027,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="13.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="38.8888888888889" customWidth="1"/>
@@ -1124,13 +1118,13 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>4</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1147,8 +1141,8 @@
       <c r="O2">
         <v>3</v>
       </c>
-      <c r="P2" t="b">
-        <v>0</v>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1156,46 +1150,47 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G3" s="1"/>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>4</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" t="b">
-        <v>0</v>
+      <c r="P3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1203,19 +1198,19 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>10000</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
+      <c r="G4" s="1">
+        <v>1005</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1224,25 +1219,25 @@
         <v>4</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
-      <c r="P4" t="b">
-        <v>0</v>
+      <c r="P4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1253,145 +1248,47 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1004</v>
+      </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6">
-        <v>1005</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6">
-        <v>10000</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1005</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7">
-        <v>1006</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>20000</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="P5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="1">
-        <v>1004</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="7:7">
-      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="G3:G4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/resource/SkillResource.xlsx
+++ b/src/main/resources/resource/SkillResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>skillId</t>
   </si>
@@ -64,6 +64,9 @@
     <t>containSelf</t>
   </si>
   <si>
+    <t>effect</t>
+  </si>
+  <si>
     <t>横扫</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>[{"type": "HP","value": 100},{"type": "MP","value": 10}]</t>
   </si>
 </sst>
 </file>
@@ -99,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -114,6 +120,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -122,7 +135,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,7 +150,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -145,75 +158,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,31 +179,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,13 +272,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +404,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,157 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,26 +463,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,6 +477,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,17 +505,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,6 +540,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -563,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,133 +581,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,10 +1033,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
@@ -1044,10 +1050,11 @@
     <col min="13" max="13" width="11.1111111111111" customWidth="1"/>
     <col min="14" max="14" width="14.2222222222222" customWidth="1"/>
     <col min="15" max="15" width="14.4444444444444" customWidth="1"/>
-    <col min="16" max="16" width="20.5555555555556" customWidth="1"/>
+    <col min="16" max="16" width="11.8888888888889" customWidth="1"/>
+    <col min="17" max="17" width="47.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1095,6 +1102,9 @@
       </c>
       <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1102,7 +1112,7 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>10000</v>
@@ -1114,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2">
@@ -1130,19 +1140,19 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2">
         <v>3</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1150,7 +1160,7 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1162,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3">
@@ -1178,19 +1188,19 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1198,7 +1208,7 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>10000</v>
@@ -1207,7 +1217,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1">
         <v>1005</v>
@@ -1225,27 +1235,27 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>20000</v>
@@ -1254,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1">
         <v>1004</v>
@@ -1272,19 +1282,22 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/SkillResource.xlsx
+++ b/src/main/resources/resource/SkillResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>skillId</t>
   </si>
@@ -94,10 +94,16 @@
     <t>治疗术</t>
   </si>
   <si>
+    <t>1004</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
     <t>[{"type": "HP","value": 100},{"type": "MP","value": 10}]</t>
+  </si>
+  <si>
+    <t>狂躁之砍</t>
   </si>
 </sst>
 </file>
@@ -119,15 +125,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,7 +143,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,23 +157,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,9 +247,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,75 +263,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,187 +278,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +469,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,15 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -501,41 +533,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,6 +555,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -569,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1033,13 +1039,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="13.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="38.8888888888889" customWidth="1"/>
@@ -1266,8 +1272,8 @@
       <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="1">
-        <v>1004</v>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1294,9 +1300,56 @@
         <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>60000</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>27</v>
       </c>
     </row>

--- a/src/main/resources/resource/SkillResource.xlsx
+++ b/src/main/resources/resource/SkillResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>skillId</t>
   </si>
@@ -34,7 +34,16 @@
     <t>consumes</t>
   </si>
   <si>
-    <t>buffs</t>
+    <t>casterBeforeBuffs</t>
+  </si>
+  <si>
+    <t>casterAfterBuffs</t>
+  </si>
+  <si>
+    <t>beforeBuffs</t>
+  </si>
+  <si>
+    <t>afterBuffs</t>
   </si>
   <si>
     <t>skillType</t>
@@ -112,9 +121,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,25 +134,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,83 +247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,21 +263,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -278,43 +287,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,139 +455,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +478,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,56 +552,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,25 +578,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +596,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,28 +1048,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="13.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="38.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="16.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="16.5555555555556" customWidth="1"/>
-    <col min="10" max="11" width="13.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="19.2222222222222" customWidth="1"/>
-    <col min="13" max="13" width="11.1111111111111" customWidth="1"/>
-    <col min="14" max="14" width="14.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="14.4444444444444" customWidth="1"/>
-    <col min="16" max="16" width="11.8888888888889" customWidth="1"/>
-    <col min="17" max="17" width="47.4444444444444" customWidth="1"/>
+    <col min="7" max="8" width="17.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="14.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="16.8888888888889" customWidth="1"/>
+    <col min="12" max="12" width="16.5555555555556" customWidth="1"/>
+    <col min="13" max="14" width="13.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="19.2222222222222" customWidth="1"/>
+    <col min="16" max="16" width="11.1111111111111" customWidth="1"/>
+    <col min="17" max="17" width="14.2222222222222" customWidth="1"/>
+    <col min="18" max="18" width="14.4444444444444" customWidth="1"/>
+    <col min="19" max="19" width="11.8888888888889" customWidth="1"/>
+    <col min="20" max="20" width="47.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1112,13 +1123,22 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>10000</v>
@@ -1130,43 +1150,49 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>1001</v>
+      </c>
       <c r="H2">
+        <v>1001</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>4</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2">
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2">
         <v>2</v>
       </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2">
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2">
         <v>3</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>20</v>
+      <c r="S2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1178,43 +1204,49 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>1001</v>
+      </c>
       <c r="H3">
+        <v>1003</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>4</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>10000</v>
@@ -1223,45 +1255,51 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>1001</v>
+      </c>
+      <c r="H4">
+        <v>1002</v>
+      </c>
+      <c r="J4" s="1">
         <v>1005</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>4</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>20000</v>
@@ -1270,48 +1308,54 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>1001</v>
+      </c>
+      <c r="H5">
+        <v>1004</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
         <v>26</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>27</v>
+      <c r="P5">
+        <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>60000</v>
@@ -1320,37 +1364,43 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>1002</v>
+      </c>
+      <c r="H6">
+        <v>1003</v>
+      </c>
+      <c r="J6" s="1">
         <v>1001</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
       <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>27</v>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/SkillResource.xlsx
+++ b/src/main/resources/resource/SkillResource.xlsx
@@ -121,9 +121,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -134,6 +134,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -142,15 +193,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,68 +217,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,30 +243,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,6 +287,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -299,19 +407,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,19 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,49 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,67 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +496,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -511,17 +544,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,35 +573,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -584,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,19 +596,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,112 +617,112 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,8 +1050,8 @@
   <sheetPr/>
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5"/>
@@ -1152,12 +1152,8 @@
       <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2">
-        <v>1001</v>
-      </c>
-      <c r="H2">
-        <v>1001</v>
-      </c>
+      <c r="G2"/>
+      <c r="H2"/>
       <c r="J2" s="1"/>
       <c r="K2">
         <v>0</v>
@@ -1206,12 +1202,8 @@
       <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="G3">
-        <v>1001</v>
-      </c>
-      <c r="H3">
-        <v>1003</v>
-      </c>
+      <c r="G3"/>
+      <c r="H3"/>
       <c r="J3" s="1"/>
       <c r="K3">
         <v>0</v>
@@ -1257,12 +1249,8 @@
       <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="G4">
-        <v>1001</v>
-      </c>
-      <c r="H4">
-        <v>1002</v>
-      </c>
+      <c r="G4"/>
+      <c r="H4"/>
       <c r="J4" s="1">
         <v>1005</v>
       </c>
@@ -1310,12 +1298,8 @@
       <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="G5">
-        <v>1001</v>
-      </c>
-      <c r="H5">
-        <v>1004</v>
-      </c>
+      <c r="G5"/>
+      <c r="H5"/>
       <c r="J5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1366,12 +1350,8 @@
       <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="G6">
-        <v>1002</v>
-      </c>
-      <c r="H6">
-        <v>1003</v>
-      </c>
+      <c r="G6"/>
+      <c r="H6"/>
       <c r="J6" s="1">
         <v>1001</v>
       </c>

--- a/src/main/resources/resource/SkillResource.xlsx
+++ b/src/main/resources/resource/SkillResource.xlsx
@@ -135,6 +135,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -150,28 +158,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,94 +271,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,181 +287,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,17 +481,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,15 +512,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,28 +546,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,16 +569,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,130 +596,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5"/>
@@ -1141,7 +1141,7 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1152,8 +1152,6 @@
       <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
       <c r="J2" s="1"/>
       <c r="K2">
         <v>0</v>
@@ -1202,8 +1200,6 @@
       <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
       <c r="J3" s="1"/>
       <c r="K3">
         <v>0</v>
@@ -1249,8 +1245,6 @@
       <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="G4"/>
-      <c r="H4"/>
       <c r="J4" s="1">
         <v>1005</v>
       </c>
@@ -1298,8 +1292,6 @@
       <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
       <c r="J5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1350,8 +1342,6 @@
       <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="G6"/>
-      <c r="H6"/>
       <c r="J6" s="1">
         <v>1001</v>
       </c>
